--- a/XX_Url/Edgesupply.xlsx
+++ b/XX_Url/Edgesupply.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{070B33F2-2C87-45ED-92A4-C15EFB7D10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FD8CF14-6008-4F81-8265-832A661762C2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{070B33F2-2C87-45ED-92A4-C15EFB7D10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AFA1BC-5701-44B0-B8F3-C1ED1209B6B4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Linea</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>Mansfield</t>
   </si>
   <si>
@@ -94,6 +91,36 @@
   </si>
   <si>
     <t>ADA</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>VX1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Mansfield VX1 Std EL Bowl</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Gerber Viper ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Homologo Mansfield</t>
   </si>
 </sst>
 </file>
@@ -636,9 +663,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1004,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,104 +1042,134 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I3" s="3">
         <v>1.28</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{4D5E2EED-FB56-4F7E-9251-5D6144E54AB6}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{C45BCFD8-E58F-4055-BCD4-1783445531D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XX_Url/Edgesupply.xlsx
+++ b/XX_Url/Edgesupply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{070B33F2-2C87-45ED-92A4-C15EFB7D10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AFA1BC-5701-44B0-B8F3-C1ED1209B6B4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{070B33F2-2C87-45ED-92A4-C15EFB7D10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492770F3-15FF-40E7-938F-BF800B982E09}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Linea</t>
   </si>
@@ -63,18 +63,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>103580000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOWL 1035 EL WHT                                                                                    </t>
-  </si>
-  <si>
-    <t>https://www.edgesupply.com/Mansfield-Plumbing-103580000-White-Floor-Mount-Toilet-Bowl.HTM</t>
-  </si>
-  <si>
     <t>Gerber</t>
   </si>
   <si>
@@ -96,16 +84,7 @@
     <t>Bowl</t>
   </si>
   <si>
-    <t>VX1</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Mansfield VX1 Std EL Bowl</t>
   </si>
   <si>
     <t>Viper</t>
@@ -1031,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1085,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -1099,19 +1078,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -1120,57 +1099,16 @@
         <v>1.28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{C45BCFD8-E58F-4055-BCD4-1783445531D5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>